--- a/pyFiles/MPC/Results/ResultsMPC.xlsx
+++ b/pyFiles/MPC/Results/ResultsMPC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\MATLAB\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4635538E-FCB7-4CC1-9CA5-5A7F313E2850}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE5E7E7-BECE-4555-9E66-B5E419BEE165}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4245" yWindow="4245" windowWidth="28800" windowHeight="15435" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Controller</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>1000 bit</t>
+  </si>
+  <si>
+    <t>3, 271, 657 Packets</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +512,15 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1022</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>

--- a/pyFiles/MPC/Results/ResultsMPC.xlsx
+++ b/pyFiles/MPC/Results/ResultsMPC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\MATLAB\pyFiles\MPC\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE5E7E7-BECE-4555-9E66-B5E419BEE165}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DEB79C-8F04-497E-BA1D-E71F9AC45410}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="28800" windowHeight="15435" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
+    <workbookView xWindow="3660" yWindow="1308" windowWidth="17280" windowHeight="8964" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Controller</t>
   </si>
@@ -42,47 +42,50 @@
     <t>LEACH only</t>
   </si>
   <si>
-    <t>Data Received by sink</t>
-  </si>
-  <si>
     <t>Last Round</t>
   </si>
   <si>
-    <t>4987.643Mbit (1pack/timesegm)</t>
-  </si>
-  <si>
-    <t>1332,973Mbit</t>
-  </si>
-  <si>
-    <t>1401.562Mbit</t>
-  </si>
-  <si>
-    <t>Horizon</t>
-  </si>
-  <si>
     <t>10 (all segm.)</t>
   </si>
   <si>
     <t>Starting Energy</t>
   </si>
   <si>
-    <t>3, 191, 152 Packets</t>
-  </si>
-  <si>
     <t>Packet Size</t>
   </si>
   <si>
     <t>1000 bit</t>
   </si>
   <si>
-    <t>3, 271, 657 Packets</t>
+    <t>3, 218, 072</t>
+  </si>
+  <si>
+    <t>702, 955</t>
+  </si>
+  <si>
+    <t>3, 191, 152 Packets (NOT SAME ENV)</t>
+  </si>
+  <si>
+    <t>3, 271, 657 Packets (NOT SAME ENV)</t>
+  </si>
+  <si>
+    <t>Data Received by sink [packets]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 119, 550 </t>
+  </si>
+  <si>
+    <t>693, 270</t>
+  </si>
+  <si>
+    <t>Horizon Length [segm]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +104,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -140,6 +150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,63 +474,63 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>1044</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1022</v>
@@ -525,236 +542,256 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
+      <c r="C4">
+        <v>921</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>920</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>3861</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15468</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>29679</v>
+        <v>12641</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>24735</v>
+      <c r="B14" s="1"/>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
   </sheetData>

--- a/pyFiles/MPC/Results/ResultsMPC.xlsx
+++ b/pyFiles/MPC/Results/ResultsMPC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\MATLAB\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DEB79C-8F04-497E-BA1D-E71F9AC45410}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0B8237-CDD4-4BE1-BEE1-1E22E8C752D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1308" windowWidth="17280" windowHeight="8964" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="28800" windowHeight="15435" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Controller</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Horizon Length [segm]</t>
+  </si>
+  <si>
+    <t>3, 223, 568</t>
+  </si>
+  <si>
+    <t>3, 114, 741</t>
+  </si>
+  <si>
+    <t>688, 089</t>
+  </si>
+  <si>
+    <t>711, 428</t>
   </si>
 </sst>
 </file>
@@ -110,7 +122,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -474,20 +485,20 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -527,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -545,8 +556,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -563,8 +576,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -581,9 +596,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>999</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -591,9 +616,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>919</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -601,8 +636,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="E8">
         <v>1</v>
@@ -611,8 +648,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="E9">
         <v>1</v>
@@ -621,8 +660,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="E10">
         <v>1</v>
@@ -631,167 +672,244 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>15468</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>12641</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>15468</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>12641</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>11829</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>12516</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>9</v>
+      </c>
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>10</v>
+      </c>
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
   </sheetData>

--- a/pyFiles/MPC/Results/ResultsMPC.xlsx
+++ b/pyFiles/MPC/Results/ResultsMPC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\MATLAB\pyFiles\MPC\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0B8237-CDD4-4BE1-BEE1-1E22E8C752D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3FCAE9-AC6A-4BA9-9CE4-223DC0D5D1C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="28800" windowHeight="15435" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
+    <workbookView xWindow="5760" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Controller</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>711, 428</t>
+  </si>
+  <si>
+    <t>3, 133, 683</t>
+  </si>
+  <si>
+    <t>LEACH max</t>
+  </si>
+  <si>
+    <t>MPC vs LEACH max</t>
+  </si>
+  <si>
+    <t>595, 541</t>
+  </si>
+  <si>
+    <t>3, 176, 191</t>
+  </si>
+  <si>
+    <t>621, 994</t>
   </si>
 </sst>
 </file>
@@ -147,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -168,6 +186,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,23 +501,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -538,7 +557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -556,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -576,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -596,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -616,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -636,19 +655,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -660,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -672,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -682,238 +694,287 @@
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>904</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>944</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C29">
         <v>15468</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C30">
         <v>12641</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C31">
         <v>11829</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C32">
         <v>12516</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="B33" s="1"/>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="B34" s="1"/>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="B36" s="1"/>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>10</v>
+      </c>
       <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
       <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>3</v>
+      </c>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>4</v>
+      </c>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>5</v>
+      </c>
       <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pyFiles/MPC/Results/ResultsMPC.xlsx
+++ b/pyFiles/MPC/Results/ResultsMPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3FCAE9-AC6A-4BA9-9CE4-223DC0D5D1C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3217E2-22C5-4673-93FA-DA85D23613CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Controller</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>621, 994</t>
+  </si>
+  <si>
+    <t>34, 322</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>30, 270</t>
+  </si>
+  <si>
+    <t>35, 774</t>
+  </si>
+  <si>
+    <t>36, 140</t>
   </si>
 </sst>
 </file>
@@ -503,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,9 +691,14 @@
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="E10">
-        <v>1</v>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>259</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -747,6 +767,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>249</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
@@ -848,7 +885,12 @@
       <c r="A35" s="4">
         <v>7</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>644</v>
+      </c>
       <c r="E35">
         <v>1</v>
       </c>
@@ -951,6 +993,18 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>282</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">

--- a/pyFiles/MPC/Results/ResultsMPC.xlsx
+++ b/pyFiles/MPC/Results/ResultsMPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3217E2-22C5-4673-93FA-DA85D23613CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8895C-6D6D-4544-B86A-1ED2663DE775}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
+    <workbookView xWindow="5124" yWindow="720" windowWidth="17280" windowHeight="8964" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="13">
   <si>
     <t>Controller</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Last Round</t>
   </si>
   <si>
-    <t>10 (all segm.)</t>
-  </si>
-  <si>
     <t>Starting Energy</t>
   </si>
   <si>
@@ -57,80 +54,29 @@
     <t>1000 bit</t>
   </si>
   <si>
-    <t>3, 218, 072</t>
-  </si>
-  <si>
-    <t>702, 955</t>
-  </si>
-  <si>
-    <t>3, 191, 152 Packets (NOT SAME ENV)</t>
-  </si>
-  <si>
-    <t>3, 271, 657 Packets (NOT SAME ENV)</t>
-  </si>
-  <si>
     <t>Data Received by sink [packets]</t>
   </si>
   <si>
-    <t xml:space="preserve">3, 119, 550 </t>
-  </si>
-  <si>
-    <t>693, 270</t>
-  </si>
-  <si>
     <t>Horizon Length [segm]</t>
   </si>
   <si>
-    <t>3, 223, 568</t>
-  </si>
-  <si>
-    <t>3, 114, 741</t>
-  </si>
-  <si>
-    <t>688, 089</t>
-  </si>
-  <si>
-    <t>711, 428</t>
-  </si>
-  <si>
-    <t>3, 133, 683</t>
-  </si>
-  <si>
     <t>LEACH max</t>
   </si>
   <si>
-    <t>MPC vs LEACH max</t>
-  </si>
-  <si>
-    <t>595, 541</t>
-  </si>
-  <si>
-    <t>3, 176, 191</t>
-  </si>
-  <si>
-    <t>621, 994</t>
-  </si>
-  <si>
-    <t>34, 322</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>30, 270</t>
-  </si>
-  <si>
-    <t>35, 774</t>
-  </si>
-  <si>
-    <t>36, 140</t>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>Data/energy [Packets/Joule]</t>
+  </si>
+  <si>
+    <t>MPC vs LEACH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +105,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -202,6 +155,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,492 +487,511 @@
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1044</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1022</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>921</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="B4" s="10">
+        <v>28861000</v>
+      </c>
+      <c r="C4" s="11">
+        <v>180</v>
+      </c>
+      <c r="D4" s="11">
+        <v>7915</v>
+      </c>
+      <c r="E4" s="11">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>920</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
+        <v>30746000</v>
+      </c>
+      <c r="C5" s="11">
+        <v>192</v>
+      </c>
+      <c r="D5" s="11">
+        <v>8323</v>
+      </c>
+      <c r="E5" s="11">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>999</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>919</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>259</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>904</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="B17" s="10">
+        <v>18000000</v>
+      </c>
+      <c r="C17" s="11">
+        <v>180</v>
+      </c>
+      <c r="D17" s="11">
+        <v>6767</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" s="10">
+        <v>19200000</v>
+      </c>
+      <c r="C18" s="11">
+        <v>192</v>
+      </c>
+      <c r="D18" s="11">
+        <v>7076</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>944</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>249</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29">
-        <v>15468</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <v>12641</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>3</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>11829</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>4</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>12516</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>5</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>6</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>7</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35">
-        <v>644</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>8</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>9</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>10</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41">
-        <v>4684</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>2</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42">
-        <v>6066</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>3</v>
       </c>
       <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>4</v>
       </c>
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>5</v>
       </c>
       <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>6</v>
       </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46">
-        <v>282</v>
-      </c>
-      <c r="E46" t="s">
-        <v>27</v>
-      </c>
       <c r="F46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>8</v>
       </c>

--- a/pyFiles/MPC/Results/ResultsMPC.xlsx
+++ b/pyFiles/MPC/Results/ResultsMPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8895C-6D6D-4544-B86A-1ED2663DE775}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8955AC2-2D9E-48F1-8A78-1CAC730DB0DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5124" yWindow="720" windowWidth="17280" windowHeight="8964" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
   <si>
     <t>Controller</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>MPC vs LEACH</t>
+  </si>
+  <si>
+    <t>Average movement of sink (1000 solves)</t>
+  </si>
+  <si>
+    <t>33.03 (distance in both x &amp; y)</t>
   </si>
 </sst>
 </file>
@@ -476,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,14 +1002,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/pyFiles/MPC/Results/ResultsMPC.xlsx
+++ b/pyFiles/MPC/Results/ResultsMPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8955AC2-2D9E-48F1-8A78-1CAC730DB0DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E93CC1-6151-4A35-AB48-B634A18501AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5124" yWindow="720" windowWidth="17280" windowHeight="8964" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
-  <si>
-    <t>Controller</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
   <si>
     <t>MPC</t>
   </si>
@@ -76,6 +73,78 @@
   </si>
   <si>
     <t>33.03 (distance in both x &amp; y)</t>
+  </si>
+  <si>
+    <t>1st node to die</t>
+  </si>
+  <si>
+    <t>All node dies</t>
+  </si>
+  <si>
+    <t>Mean Data/energy [Packets/Joule]</t>
+  </si>
+  <si>
+    <t>Energy Consumed Quota LEACH/MPC</t>
+  </si>
+  <si>
+    <t>Data Received Quota LEACH/MPC</t>
+  </si>
+  <si>
+    <t>0.6902</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6242</t>
+  </si>
+  <si>
+    <t>Data Received [Packets]</t>
+  </si>
+  <si>
+    <t>Energy Consumed [J]</t>
+  </si>
+  <si>
+    <t>3.594</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>0.7163</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>2.669</t>
+  </si>
+  <si>
+    <t>3.726</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>0.6268</t>
+  </si>
+  <si>
+    <t>3.9927</t>
+  </si>
+  <si>
+    <t>2.8797</t>
+  </si>
+  <si>
+    <t>0.7178</t>
+  </si>
+  <si>
+    <t>0.6235</t>
+  </si>
+  <si>
+    <t>4.068</t>
+  </si>
+  <si>
+    <t>2.9203</t>
+  </si>
+  <si>
+    <t>Sink X&amp;Y-speed</t>
   </si>
 </sst>
 </file>
@@ -482,175 +551,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="38.5546875" customWidth="1"/>
+    <col min="12" max="14" width="40.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="35.6640625" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="20" max="20" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
-        <v>28861000</v>
-      </c>
-      <c r="C4" s="11">
-        <v>180</v>
-      </c>
-      <c r="D4" s="11">
-        <v>7915</v>
-      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="11">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="10">
+        <v>27051000</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="11">
+        <v>169</v>
+      </c>
+      <c r="P4" s="11">
+        <v>7865</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
-        <v>30746000</v>
-      </c>
-      <c r="C5" s="11">
-        <v>192</v>
-      </c>
-      <c r="D5" s="11">
-        <v>8323</v>
-      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="11">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="10">
+        <v>29686000</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="11">
+        <v>184</v>
+      </c>
+      <c r="P5" s="11">
+        <v>8130</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="10">
+        <v>31423000</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="11">
+        <v>197</v>
+      </c>
+      <c r="P6" s="11">
+        <v>8096</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>4</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="10">
+        <v>31786000</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="11">
+        <v>198</v>
+      </c>
+      <c r="P7" s="11">
+        <v>8056</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="R9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
+        <v>7</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -659,345 +959,730 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J11" s="9">
+        <v>8</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J12" s="9">
+        <v>9</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J13" s="9">
+        <v>10</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>1</v>
       </c>
-      <c r="B17" s="10">
-        <v>18000000</v>
-      </c>
-      <c r="C17" s="11">
-        <v>180</v>
-      </c>
-      <c r="D17" s="11">
-        <v>6767</v>
-      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10">
+        <v>16900000</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="11">
+        <v>169</v>
+      </c>
+      <c r="P17" s="11">
+        <v>6808</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>2</v>
       </c>
-      <c r="B18" s="10">
-        <v>19200000</v>
-      </c>
-      <c r="C18" s="11">
-        <v>192</v>
-      </c>
-      <c r="D18" s="11">
-        <v>7076</v>
-      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="9">
+        <v>2</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10">
+        <v>18400000</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="11">
+        <v>184</v>
+      </c>
+      <c r="P18" s="11">
+        <v>6901</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
+      <c r="M19" s="11">
+        <v>19700000</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="11">
+        <v>197</v>
+      </c>
+      <c r="P19" s="11">
+        <v>6854</v>
+      </c>
+      <c r="R19" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>4</v>
+      </c>
+      <c r="M20" s="11">
+        <v>19800000</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="11">
+        <v>198</v>
+      </c>
+      <c r="P20" s="11">
+        <v>6781</v>
+      </c>
+      <c r="R20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4">
+        <v>6</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="R22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4">
+        <v>7</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="R23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J24" s="4">
+        <v>8</v>
+      </c>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J25" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="R29" t="s">
+        <v>9</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2</v>
       </c>
       <c r="B30" s="1"/>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="R30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>3</v>
       </c>
       <c r="B31" s="1"/>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="R31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>4</v>
       </c>
       <c r="B32" s="1"/>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J32" s="4">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="R32" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>5</v>
       </c>
       <c r="B33" s="1"/>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4">
+        <v>5</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="R33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>6</v>
       </c>
       <c r="B34" s="1"/>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="R34" t="s">
+        <v>9</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>7</v>
       </c>
       <c r="B35" s="1"/>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J35" s="4">
+        <v>7</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="R35" t="s">
+        <v>9</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>8</v>
       </c>
       <c r="B36" s="1"/>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J36" s="4">
+        <v>8</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="R36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>9</v>
       </c>
       <c r="B37" s="1"/>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J37" s="4">
+        <v>9</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="R37" t="s">
+        <v>9</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>10</v>
       </c>
       <c r="B38" s="1"/>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J38" s="4">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="R38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="R39" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1</v>
       </c>
       <c r="B41" s="1"/>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="R41" t="s">
+        <v>9</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>2</v>
       </c>
       <c r="B42" s="1"/>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="R42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>3</v>
       </c>
       <c r="B43" s="1"/>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J43" s="4">
+        <v>3</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="R43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>4</v>
       </c>
       <c r="B44" s="1"/>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J44" s="4">
+        <v>4</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="R44" t="s">
+        <v>9</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>5</v>
       </c>
       <c r="B45" s="1"/>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J45" s="4">
+        <v>5</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="R45" t="s">
+        <v>9</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="R46" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>8</v>
       </c>
@@ -1014,12 +1699,12 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/pyFiles/MPC/Results/ResultsMPC.xlsx
+++ b/pyFiles/MPC/Results/ResultsMPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E93CC1-6151-4A35-AB48-B634A18501AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82DADCF-A574-4BD7-B2CB-9B83470FD6F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
   <si>
     <t>MPC</t>
   </si>
@@ -145,6 +145,84 @@
   </si>
   <si>
     <t>Sink X&amp;Y-speed</t>
+  </si>
+  <si>
+    <t>0.6669</t>
+  </si>
+  <si>
+    <t>0.6047</t>
+  </si>
+  <si>
+    <t>3.4259</t>
+  </si>
+  <si>
+    <t>2.2847</t>
+  </si>
+  <si>
+    <t>5286/7691</t>
+  </si>
+  <si>
+    <t>Min/Max ppJ [Packets/J]</t>
+  </si>
+  <si>
+    <t>3448/10296</t>
+  </si>
+  <si>
+    <t>0.7298</t>
+  </si>
+  <si>
+    <t>0.6184</t>
+  </si>
+  <si>
+    <t>3.6234</t>
+  </si>
+  <si>
+    <t>2.6446</t>
+  </si>
+  <si>
+    <t>5530/7615</t>
+  </si>
+  <si>
+    <t>4881/10552</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.6142</t>
+  </si>
+  <si>
+    <t>3.7176</t>
+  </si>
+  <si>
+    <t>2.6916</t>
+  </si>
+  <si>
+    <t>5329/7901</t>
+  </si>
+  <si>
+    <t>4379/10394</t>
+  </si>
+  <si>
+    <t>test run</t>
+  </si>
+  <si>
+    <t>0.6818</t>
+  </si>
+  <si>
+    <t>0.6044</t>
+  </si>
+  <si>
+    <t>3.2132</t>
+  </si>
+  <si>
+    <t>2.1910</t>
+  </si>
+  <si>
+    <t>5456/7463</t>
+  </si>
+  <si>
+    <t>4170/7463</t>
   </si>
 </sst>
 </file>
@@ -551,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,18 +644,19 @@
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
     <col min="10" max="10" width="17.109375" customWidth="1"/>
     <col min="11" max="11" width="38.5546875" customWidth="1"/>
     <col min="12" max="14" width="40.5546875" customWidth="1"/>
     <col min="15" max="15" width="23.44140625" customWidth="1"/>
-    <col min="16" max="16" width="35.6640625" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1"/>
-    <col min="20" max="20" width="18.77734375" customWidth="1"/>
+    <col min="16" max="17" width="35.6640625" customWidth="1"/>
+    <col min="18" max="18" width="28.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+    <col min="21" max="21" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -599,8 +678,11 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>18</v>
@@ -621,19 +703,22 @@
         <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -652,10 +737,10 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="F3" t="s">
@@ -669,9 +754,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -708,20 +793,21 @@
       <c r="P4" s="11">
         <v>7865</v>
       </c>
-      <c r="Q4" s="11">
-        <v>10</v>
-      </c>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -758,20 +844,21 @@
       <c r="P5" s="11">
         <v>8130</v>
       </c>
-      <c r="Q5" s="11">
-        <v>10</v>
-      </c>
-      <c r="R5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11">
+        <v>10</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -803,20 +890,21 @@
       <c r="P6" s="11">
         <v>8096</v>
       </c>
-      <c r="Q6" s="10">
-        <v>10</v>
-      </c>
-      <c r="R6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10">
+        <v>10</v>
+      </c>
+      <c r="S6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -848,20 +936,21 @@
       <c r="P7" s="11">
         <v>8056</v>
       </c>
-      <c r="Q7" s="10">
-        <v>10</v>
-      </c>
-      <c r="R7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10">
+        <v>10</v>
+      </c>
+      <c r="S7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -874,23 +963,41 @@
       <c r="J8" s="9">
         <v>5</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="R8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="11">
+        <v>24960000</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="10">
+        <v>151</v>
+      </c>
+      <c r="P8" s="10">
+        <v>7654</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="10">
+        <v>10</v>
+      </c>
+      <c r="S8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -904,23 +1011,41 @@
       <c r="J9" s="9">
         <v>6</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="R9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="10">
+        <v>29461000</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="10">
+        <v>182</v>
+      </c>
+      <c r="P9" s="10">
+        <v>8258</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="10">
+        <v>10</v>
+      </c>
+      <c r="S9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -934,23 +1059,41 @@
       <c r="J10" s="9">
         <v>7</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="R10" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="10">
+        <v>30746000</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="10">
+        <v>189</v>
+      </c>
+      <c r="P10" s="10">
+        <v>8434</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="10">
+        <v>10</v>
+      </c>
+      <c r="S10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -962,495 +1105,460 @@
       <c r="J11" s="9">
         <v>8</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="10">
+        <v>24478000</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="10">
+        <v>148</v>
+      </c>
+      <c r="P11" s="10">
+        <v>7923</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="7">
+        <v>10</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="J12" s="9">
-        <v>9</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="J13" s="9">
-        <v>10</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="J14" s="9">
+        <v>10</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="9">
         <v>1</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10">
         <v>16900000</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O20" s="11">
         <v>169</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P20" s="11">
         <v>6808</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" t="s">
-        <v>9</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="S20" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="9">
         <v>2</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10">
         <v>18400000</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O21" s="11">
         <v>184</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P21" s="11">
         <v>6901</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="11"/>
+      <c r="S21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4">
         <v>3</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M22" s="11">
         <v>19700000</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O22" s="11">
         <v>197</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P22" s="11">
         <v>6854</v>
       </c>
-      <c r="R19" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="Q22" s="10"/>
+      <c r="S22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4">
         <v>4</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M23" s="11">
         <v>19800000</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O23" s="11">
         <v>198</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P23" s="11">
         <v>6781</v>
       </c>
-      <c r="R20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4">
-        <v>5</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="R21" t="s">
-        <v>9</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="Q23" s="10"/>
+      <c r="S23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>15100000</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="11">
+        <v>151</v>
+      </c>
+      <c r="P24">
+        <v>6614</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4">
         <v>6</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="R22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="M25">
+        <v>18200000</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="11">
+        <v>182</v>
+      </c>
+      <c r="P25">
+        <v>6870</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S25" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>7</v>
       </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4">
         <v>7</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="R23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="M26">
+        <v>18900000</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="11">
+        <v>189</v>
+      </c>
+      <c r="P26">
+        <v>7021</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J27" s="4">
         <v>8</v>
       </c>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>9</v>
-      </c>
-      <c r="J25" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="M27">
+        <v>14800000</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" s="11">
+        <v>148</v>
+      </c>
+      <c r="P27">
+        <v>6736</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S27" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="11"/>
+      <c r="Q28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>9</v>
+      </c>
+      <c r="J29" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>1</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="R29" t="s">
-        <v>9</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="4">
-        <v>2</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="R30" t="s">
-        <v>9</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="4">
-        <v>3</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="R31" t="s">
-        <v>9</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="4">
-        <v>4</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="R32" t="s">
-        <v>9</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="4">
-        <v>5</v>
-      </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="R33" t="s">
-        <v>9</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="4">
-        <v>6</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="R34" t="s">
-        <v>9</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="4">
-        <v>7</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="R35" t="s">
-        <v>9</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" s="4">
-        <v>8</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="R36" t="s">
-        <v>9</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>9</v>
       </c>
       <c r="B37" s="1"/>
       <c r="F37" t="s">
@@ -1460,22 +1568,22 @@
         <v>5</v>
       </c>
       <c r="J37" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="R37" t="s">
-        <v>9</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1"/>
       <c r="F38" t="s">
@@ -1485,21 +1593,23 @@
         <v>5</v>
       </c>
       <c r="J38" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="R38" t="s">
-        <v>9</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="S38" t="s">
+        <v>9</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>3</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="F39" t="s">
         <v>9</v>
@@ -1507,34 +1617,48 @@
       <c r="G39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="4"/>
+      <c r="J39" s="4">
+        <v>3</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="R39" t="s">
-        <v>9</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>8</v>
+      <c r="S39" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>4</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="J40" s="3" t="s">
-        <v>8</v>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="4">
+        <v>4</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S40" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1"/>
       <c r="F41" t="s">
@@ -1544,22 +1668,22 @@
         <v>5</v>
       </c>
       <c r="J41" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="R41" t="s">
-        <v>9</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S41" t="s">
+        <v>9</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1"/>
       <c r="F42" t="s">
@@ -1569,22 +1693,22 @@
         <v>5</v>
       </c>
       <c r="J42" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="R42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S42" t="s">
+        <v>9</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1"/>
       <c r="F43" t="s">
@@ -1594,22 +1718,22 @@
         <v>5</v>
       </c>
       <c r="J43" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="R43" t="s">
-        <v>9</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S43" t="s">
+        <v>9</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1"/>
       <c r="F44" t="s">
@@ -1619,22 +1743,22 @@
         <v>5</v>
       </c>
       <c r="J44" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="R44" t="s">
-        <v>9</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S44" t="s">
+        <v>9</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1"/>
       <c r="F45" t="s">
@@ -1644,66 +1768,250 @@
         <v>5</v>
       </c>
       <c r="J45" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="R45" t="s">
-        <v>9</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S45" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="4">
+        <v>10</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="S46" t="s">
+        <v>9</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="1"/>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="S47" t="s">
+        <v>9</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="S49" t="s">
+        <v>9</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="4">
+        <v>2</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="S50" t="s">
+        <v>9</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="4">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="S51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="4">
+        <v>4</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="S52" t="s">
+        <v>9</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="4">
+        <v>5</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="S53" t="s">
+        <v>9</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>6</v>
       </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="4">
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="4">
         <v>6</v>
       </c>
-      <c r="R46" t="s">
-        <v>9</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="S54" t="s">
+        <v>9</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>13</v>
       </c>
     </row>

--- a/pyFiles/MPC/Results/ResultsMPC.xlsx
+++ b/pyFiles/MPC/Results/ResultsMPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82DADCF-A574-4BD7-B2CB-9B83470FD6F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B45F0DC-B258-491E-BA80-3B882FD4BBFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
+    <workbookView xWindow="-312" yWindow="108" windowWidth="16488" windowHeight="11388" xr2:uid="{1BC5E51A-5632-4252-887C-9C128D35FB87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="253">
   <si>
     <t>MPC</t>
   </si>
@@ -222,7 +222,574 @@
     <t>5456/7463</t>
   </si>
   <si>
-    <t>4170/7463</t>
+    <t>0.7054</t>
+  </si>
+  <si>
+    <t>0.6133</t>
+  </si>
+  <si>
+    <t>3.7036</t>
+  </si>
+  <si>
+    <t>2.6127</t>
+  </si>
+  <si>
+    <t>5285/7678</t>
+  </si>
+  <si>
+    <t>3922/10284</t>
+  </si>
+  <si>
+    <t>0.7230</t>
+  </si>
+  <si>
+    <t>0.6209</t>
+  </si>
+  <si>
+    <t>3.6122</t>
+  </si>
+  <si>
+    <t>2.6115</t>
+  </si>
+  <si>
+    <t>4816/7684</t>
+  </si>
+  <si>
+    <t>3492/10547</t>
+  </si>
+  <si>
+    <t>0.6808</t>
+  </si>
+  <si>
+    <t>0.6159</t>
+  </si>
+  <si>
+    <t>3.6143</t>
+  </si>
+  <si>
+    <t>2.4608</t>
+  </si>
+  <si>
+    <t>5333/7758</t>
+  </si>
+  <si>
+    <t>2719/10392</t>
+  </si>
+  <si>
+    <t>0.6809</t>
+  </si>
+  <si>
+    <t>0.6071</t>
+  </si>
+  <si>
+    <t>3.0463</t>
+  </si>
+  <si>
+    <t>2.0743</t>
+  </si>
+  <si>
+    <t>5473/7635</t>
+  </si>
+  <si>
+    <t>3860/10134</t>
+  </si>
+  <si>
+    <t>0.7235</t>
+  </si>
+  <si>
+    <t>0.6171</t>
+  </si>
+  <si>
+    <t>0.7149</t>
+  </si>
+  <si>
+    <t>0.6173</t>
+  </si>
+  <si>
+    <t>0.6764</t>
+  </si>
+  <si>
+    <t>0.6187</t>
+  </si>
+  <si>
+    <t>0.6555</t>
+  </si>
+  <si>
+    <t>0.6119</t>
+  </si>
+  <si>
+    <t>3.8474</t>
+  </si>
+  <si>
+    <t>2.7837</t>
+  </si>
+  <si>
+    <t>3.7789</t>
+  </si>
+  <si>
+    <t>2.7016</t>
+  </si>
+  <si>
+    <t>3.7088</t>
+  </si>
+  <si>
+    <t>2.5089</t>
+  </si>
+  <si>
+    <t>3.6301</t>
+  </si>
+  <si>
+    <t>2.3796</t>
+  </si>
+  <si>
+    <t>5010/10601</t>
+  </si>
+  <si>
+    <t>5751/7856</t>
+  </si>
+  <si>
+    <t>4379/10543</t>
+  </si>
+  <si>
+    <t>5023/78831</t>
+  </si>
+  <si>
+    <t>3939/10155</t>
+  </si>
+  <si>
+    <t>4981/7520</t>
+  </si>
+  <si>
+    <t>3036/10280</t>
+  </si>
+  <si>
+    <t>4961/7478</t>
+  </si>
+  <si>
+    <t>0.6139</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7101</t>
+  </si>
+  <si>
+    <t>0.7215</t>
+  </si>
+  <si>
+    <t>0.6210</t>
+  </si>
+  <si>
+    <t>0.6177</t>
+  </si>
+  <si>
+    <t>0.7159</t>
+  </si>
+  <si>
+    <t>0.7196</t>
+  </si>
+  <si>
+    <t>0.6196</t>
+  </si>
+  <si>
+    <t>4.0610</t>
+  </si>
+  <si>
+    <t>2.8841</t>
+  </si>
+  <si>
+    <t>4.1199</t>
+  </si>
+  <si>
+    <t>2.9724</t>
+  </si>
+  <si>
+    <t>3.8597</t>
+  </si>
+  <si>
+    <t>2.7630</t>
+  </si>
+  <si>
+    <t>3.7579</t>
+  </si>
+  <si>
+    <t>2.7041</t>
+  </si>
+  <si>
+    <t>4012/10710</t>
+  </si>
+  <si>
+    <t>5234/7682</t>
+  </si>
+  <si>
+    <t>4316/10167</t>
+  </si>
+  <si>
+    <t>4767/7479</t>
+  </si>
+  <si>
+    <t>3912/10792</t>
+  </si>
+  <si>
+    <t>5326/7720</t>
+  </si>
+  <si>
+    <t>3608/10293</t>
+  </si>
+  <si>
+    <t>5576/7722</t>
+  </si>
+  <si>
+    <t>0.7419</t>
+  </si>
+  <si>
+    <t>0.6285</t>
+  </si>
+  <si>
+    <t>0.7187</t>
+  </si>
+  <si>
+    <t>0.6279</t>
+  </si>
+  <si>
+    <t>0.7152</t>
+  </si>
+  <si>
+    <t>0.6229</t>
+  </si>
+  <si>
+    <t>0.7555</t>
+  </si>
+  <si>
+    <t>0.6777</t>
+  </si>
+  <si>
+    <t>3.9970</t>
+  </si>
+  <si>
+    <t>2.9654</t>
+  </si>
+  <si>
+    <t>4.0165</t>
+  </si>
+  <si>
+    <t>2.8867</t>
+  </si>
+  <si>
+    <t>3.9032</t>
+  </si>
+  <si>
+    <t>2.7916</t>
+  </si>
+  <si>
+    <t>4.8872</t>
+  </si>
+  <si>
+    <t>3.6921</t>
+  </si>
+  <si>
+    <t>3055/10089</t>
+  </si>
+  <si>
+    <t>3566/9971</t>
+  </si>
+  <si>
+    <t>4084/10795</t>
+  </si>
+  <si>
+    <t>2447/10369</t>
+  </si>
+  <si>
+    <t>5454/7618</t>
+  </si>
+  <si>
+    <t>5066/7595</t>
+  </si>
+  <si>
+    <t>5420/7480</t>
+  </si>
+  <si>
+    <t>4781/7616</t>
+  </si>
+  <si>
+    <t>0.6873</t>
+  </si>
+  <si>
+    <t>0.6130</t>
+  </si>
+  <si>
+    <t>2.1809</t>
+  </si>
+  <si>
+    <t>3.1729</t>
+  </si>
+  <si>
+    <t>3726/10285</t>
+  </si>
+  <si>
+    <t>5419/7720</t>
+  </si>
+  <si>
+    <t>0.7118</t>
+  </si>
+  <si>
+    <t>0.6248</t>
+  </si>
+  <si>
+    <t>2.8025</t>
+  </si>
+  <si>
+    <t>3.9371</t>
+  </si>
+  <si>
+    <t>3680/10436</t>
+  </si>
+  <si>
+    <t>5486/7859</t>
+  </si>
+  <si>
+    <t>0.6785</t>
+  </si>
+  <si>
+    <t>0.6156</t>
+  </si>
+  <si>
+    <t>3.3133</t>
+  </si>
+  <si>
+    <t>2.2481</t>
+  </si>
+  <si>
+    <t>3447/10475</t>
+  </si>
+  <si>
+    <t>5637/7656</t>
+  </si>
+  <si>
+    <t>0.6734</t>
+  </si>
+  <si>
+    <t>0.6126</t>
+  </si>
+  <si>
+    <t>3.7416</t>
+  </si>
+  <si>
+    <t>2.5195</t>
+  </si>
+  <si>
+    <t>3975/9911</t>
+  </si>
+  <si>
+    <t>4970/7471</t>
+  </si>
+  <si>
+    <t>0.7142</t>
+  </si>
+  <si>
+    <t>0.6186</t>
+  </si>
+  <si>
+    <t>3.7559</t>
+  </si>
+  <si>
+    <t>2.6825</t>
+  </si>
+  <si>
+    <t>5241/7604</t>
+  </si>
+  <si>
+    <t>3115/10145</t>
+  </si>
+  <si>
+    <t>0.7408</t>
+  </si>
+  <si>
+    <t>0.6247</t>
+  </si>
+  <si>
+    <t>3.8726</t>
+  </si>
+  <si>
+    <t>2.8689</t>
+  </si>
+  <si>
+    <t>5391/7835</t>
+  </si>
+  <si>
+    <t>4185/10583</t>
+  </si>
+  <si>
+    <t>0.7250</t>
+  </si>
+  <si>
+    <t>0.6281</t>
+  </si>
+  <si>
+    <t>3.8524</t>
+  </si>
+  <si>
+    <t>2.7931</t>
+  </si>
+  <si>
+    <t>4173/10221</t>
+  </si>
+  <si>
+    <t>5412/7601</t>
+  </si>
+  <si>
+    <t>0.6662</t>
+  </si>
+  <si>
+    <t>0.6063</t>
+  </si>
+  <si>
+    <t>3.3562</t>
+  </si>
+  <si>
+    <t>2.2360</t>
+  </si>
+  <si>
+    <t>5606/7613</t>
+  </si>
+  <si>
+    <t>3149/10875</t>
+  </si>
+  <si>
+    <t>0.6151</t>
+  </si>
+  <si>
+    <t>0.6172</t>
+  </si>
+  <si>
+    <t>3.0898</t>
+  </si>
+  <si>
+    <t>1.9006</t>
+  </si>
+  <si>
+    <t>3748/9881</t>
+  </si>
+  <si>
+    <t>5230/7667</t>
+  </si>
+  <si>
+    <t>0.5855</t>
+  </si>
+  <si>
+    <t>3.2563</t>
+  </si>
+  <si>
+    <t>1.9067</t>
+  </si>
+  <si>
+    <t>3192/9489</t>
+  </si>
+  <si>
+    <t>5118/7763</t>
+  </si>
+  <si>
+    <t>0.6116</t>
+  </si>
+  <si>
+    <t>0.5751</t>
+  </si>
+  <si>
+    <t>1.5337</t>
+  </si>
+  <si>
+    <t>2.6667</t>
+  </si>
+  <si>
+    <t>5100/7650</t>
+  </si>
+  <si>
+    <t>3760/9701</t>
+  </si>
+  <si>
+    <t>0.6026</t>
+  </si>
+  <si>
+    <t>0.5843</t>
+  </si>
+  <si>
+    <t>3.5247</t>
+  </si>
+  <si>
+    <t>2.0594</t>
+  </si>
+  <si>
+    <t>5433/7807</t>
+  </si>
+  <si>
+    <t>2593/10169</t>
+  </si>
+  <si>
+    <t>0.5974</t>
+  </si>
+  <si>
+    <t>0.6056</t>
+  </si>
+  <si>
+    <t>2.1051</t>
+  </si>
+  <si>
+    <t>3.5237</t>
+  </si>
+  <si>
+    <t>5207/7667</t>
+  </si>
+  <si>
+    <t>2577/9515</t>
+  </si>
+  <si>
+    <t>0.6219</t>
+  </si>
+  <si>
+    <t>1.9047</t>
+  </si>
+  <si>
+    <t>3.0626</t>
+  </si>
+  <si>
+    <t>3101/9643</t>
+  </si>
+  <si>
+    <t>5010/7750</t>
+  </si>
+  <si>
+    <t>0.6099</t>
+  </si>
+  <si>
+    <t>0.6125</t>
+  </si>
+  <si>
+    <t>2.6754</t>
+  </si>
+  <si>
+    <t>1.6387</t>
+  </si>
+  <si>
+    <t>5456/7538</t>
+  </si>
+  <si>
+    <t>3679/9543</t>
+  </si>
+  <si>
+    <t>0.5980</t>
+  </si>
+  <si>
+    <t>0.5912</t>
+  </si>
+  <si>
+    <t>3.4675</t>
+  </si>
+  <si>
+    <t>2.0498</t>
+  </si>
+  <si>
+    <t>5525/7659</t>
+  </si>
+  <si>
+    <t>3667/10355</t>
   </si>
 </sst>
 </file>
@@ -629,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2693EA75-5C63-4FDE-887F-C7326CFE699C}">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="O40" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,9 +1690,7 @@
       <c r="P11" s="10">
         <v>7923</v>
       </c>
-      <c r="Q11" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q11" s="10"/>
       <c r="R11" s="7">
         <v>10</v>
       </c>
@@ -1156,114 +1721,278 @@
       <c r="J13" s="9">
         <v>9</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="11">
+        <v>28671000</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="10">
+        <v>176</v>
+      </c>
+      <c r="P13" s="10">
+        <v>7950</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" s="10">
+        <v>8</v>
+      </c>
+      <c r="S13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="J14" s="9">
         <v>10</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="K14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14">
+        <v>28665000</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="10">
+        <v>178</v>
+      </c>
+      <c r="P14" s="10">
+        <v>8130</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="10">
+        <v>8</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="J15" s="9">
+        <v>11</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="11">
+        <v>27740000</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="10">
+        <v>171</v>
+      </c>
+      <c r="P15" s="10">
+        <v>7983</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="10">
+        <v>8</v>
+      </c>
+      <c r="S15" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="J16" s="9">
+        <v>12</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="11">
+        <v>23527000</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="10">
+        <v>143</v>
+      </c>
+      <c r="P16" s="10">
+        <v>8061</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="10">
+        <v>8</v>
+      </c>
+      <c r="S16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="J17" s="9">
+        <v>13</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17">
+        <v>31576000</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="11">
+        <v>195</v>
+      </c>
+      <c r="P17" s="10">
+        <v>8362</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" s="10">
+        <v>8</v>
+      </c>
+      <c r="S17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="10"/>
+      <c r="J18" s="9">
+        <v>14</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18">
+        <v>30451000</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" s="11">
+        <v>188</v>
+      </c>
+      <c r="P18" s="10">
+        <v>8283</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="R18" s="10">
+        <v>8</v>
+      </c>
+      <c r="S18" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="10"/>
+      <c r="J19" s="9">
+        <v>15</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19">
+        <v>26987000</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" s="11">
+        <v>167</v>
+      </c>
+      <c r="P19" s="10">
+        <v>7623</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="10">
+        <v>8</v>
+      </c>
+      <c r="S19" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>1</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="J20" s="9">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="M20" s="10">
-        <v>16900000</v>
+        <v>25633000</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="O20" s="11">
-        <v>169</v>
-      </c>
-      <c r="P20" s="11">
-        <v>6808</v>
-      </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="P20" s="10">
+        <v>7492</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="R20" s="10">
+        <v>8</v>
+      </c>
       <c r="S20" t="s">
         <v>9</v>
       </c>
@@ -1272,71 +2001,45 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>2</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="9">
-        <v>2</v>
-      </c>
-      <c r="K21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="10">
-        <v>18400000</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="11">
-        <v>184</v>
-      </c>
-      <c r="P21" s="11">
-        <v>6901</v>
-      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="11"/>
-      <c r="S21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="R21" s="10"/>
+      <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="4">
-        <v>3</v>
-      </c>
-      <c r="M22" s="11">
-        <v>19700000</v>
+      <c r="J22" s="9">
+        <v>17</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="10">
+        <v>31756000</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="O22" s="11">
-        <v>197</v>
-      </c>
-      <c r="P22" s="11">
-        <v>6854</v>
-      </c>
-      <c r="Q22" s="10"/>
+        <v>195</v>
+      </c>
+      <c r="P22" s="10">
+        <v>8033</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="R22" s="10">
+        <v>6</v>
+      </c>
       <c r="S22" t="s">
         <v>9</v>
       </c>
@@ -1345,31 +2048,33 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4">
-        <v>4</v>
-      </c>
-      <c r="M23" s="11">
-        <v>19800000</v>
+      <c r="J23" s="9">
+        <v>18</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" s="10">
+        <v>32075000</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="O23" s="11">
-        <v>198</v>
-      </c>
-      <c r="P23" s="11">
-        <v>6781</v>
-      </c>
-      <c r="Q23" s="10"/>
+        <v>199</v>
+      </c>
+      <c r="P23" s="10">
+        <v>7967</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="R23" s="10">
+        <v>6</v>
+      </c>
       <c r="S23" t="s">
         <v>9</v>
       </c>
@@ -1378,125 +2083,137 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4">
-        <v>5</v>
-      </c>
-      <c r="M24">
-        <v>15100000</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>41</v>
+      <c r="J24" s="9">
+        <v>19</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" s="10">
+        <v>30898000</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="O24" s="11">
+        <v>191</v>
+      </c>
+      <c r="P24" s="10">
+        <v>8241</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="R24" s="10">
+        <v>6</v>
+      </c>
+      <c r="S24" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J25" s="9">
+        <v>20</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="10">
+        <v>30015000</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="11">
+        <v>186</v>
+      </c>
+      <c r="P25" s="10">
+        <v>8208</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R25" s="10">
+        <v>6</v>
+      </c>
+      <c r="S25" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J26" s="9">
+        <v>21</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="10">
+        <v>31801000</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="O26" s="11">
+        <v>200</v>
+      </c>
+      <c r="P26" s="10">
+        <v>8162</v>
+      </c>
+      <c r="Q26" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="P24">
-        <v>6614</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S24" t="s">
-        <v>9</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="R26" s="10">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="S26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J27" s="9">
+        <v>22</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" s="10">
+        <v>30928000</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O27" s="11">
+        <v>194</v>
+      </c>
+      <c r="P27" s="10">
+        <v>7933</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="R27" s="10">
         <v>6</v>
-      </c>
-      <c r="M25">
-        <v>18200000</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" s="11">
-        <v>182</v>
-      </c>
-      <c r="P25">
-        <v>6870</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S25" t="s">
-        <v>9</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="4">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <v>18900000</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="11">
-        <v>189</v>
-      </c>
-      <c r="P26">
-        <v>7021</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S26" t="s">
-        <v>9</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>8</v>
-      </c>
-      <c r="J27" s="4">
-        <v>8</v>
-      </c>
-      <c r="M27">
-        <v>14800000</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O27" s="11">
-        <v>148</v>
-      </c>
-      <c r="P27">
-        <v>6736</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="S27" t="s">
         <v>9</v>
@@ -1507,73 +2224,344 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="11"/>
-      <c r="Q28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="J28" s="9">
+        <v>23</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M28" s="10">
+        <v>30017000</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O28" s="11">
+        <v>187</v>
+      </c>
+      <c r="P28" s="11">
+        <v>7951</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="R28" s="10">
+        <v>6</v>
+      </c>
+      <c r="S28" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>9</v>
-      </c>
-      <c r="J29" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q29" s="1"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="J29" s="9">
+        <v>24</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="10">
+        <v>35757000</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" s="11">
+        <v>243</v>
+      </c>
+      <c r="P29" s="11">
+        <v>7689</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R29" s="10">
+        <v>6</v>
+      </c>
+      <c r="S29" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="Q30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="Q31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="J31" s="9">
+        <v>25</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M31" s="10">
+        <v>23951000</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="O31" s="11">
+        <v>147</v>
+      </c>
+      <c r="P31" s="11">
+        <v>7866</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R31" s="10">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="Q32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="J32" s="9">
+        <v>26</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M32" s="10">
+        <v>31188000</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="O32" s="11">
+        <v>195</v>
+      </c>
+      <c r="P32" s="11">
+        <v>8190</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="R32" s="10">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s">
+        <v>9</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="Q33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="J33" s="9">
+        <v>27</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" s="10">
+        <v>24829000</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="O33" s="11">
+        <v>153</v>
+      </c>
+      <c r="P33" s="11">
+        <v>7824</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R33" s="10">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s">
+        <v>9</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q34" s="1"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="1"/>
+      <c r="J34" s="9">
+        <v>28</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M34" s="10">
+        <v>27582000</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="O34" s="11">
+        <v>169</v>
+      </c>
+      <c r="P34" s="11">
+        <v>7703</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="R34" s="10">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q35" s="1"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="1"/>
+      <c r="J35" s="9">
+        <v>29</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M35" s="10">
+        <v>29453000</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="O35" s="11">
+        <v>182</v>
+      </c>
+      <c r="P35" s="11">
+        <v>8041</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="R35" s="10">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>1</v>
+      <c r="A36" s="4"/>
+      <c r="B36" s="1"/>
+      <c r="J36" s="9">
+        <v>30</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M36" s="10">
+        <v>31514000</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="O36" s="11">
+        <v>197</v>
+      </c>
+      <c r="P36" s="11">
+        <v>8259</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R36" s="10">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>1</v>
-      </c>
+      <c r="A37" s="4"/>
       <c r="B37" s="1"/>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J37" s="4">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="J37" s="9">
+        <v>31</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M37" s="10">
+        <v>29911000</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O37" s="11">
+        <v>188</v>
+      </c>
+      <c r="P37" s="11">
+        <v>7980</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="R37" s="10">
+        <v>4</v>
+      </c>
       <c r="S37" t="s">
         <v>9</v>
       </c>
@@ -1582,98 +2570,120 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="J38" s="9">
+        <v>32</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M38" s="10">
+        <v>25539000</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="O38" s="11">
+        <v>155</v>
+      </c>
+      <c r="P38" s="11">
+        <v>7965</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="R38" s="10">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s">
+        <v>9</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="1"/>
+      <c r="J39" s="9"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="1"/>
+      <c r="J40" s="9">
+        <v>33</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M40" s="10">
+        <v>21226000</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O40" s="11">
+        <v>131</v>
+      </c>
+      <c r="P40" s="11">
+        <v>7102</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="R40" s="10">
         <v>2</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="4">
+      <c r="S40" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="1"/>
+      <c r="J41" s="9">
+        <v>34</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M41" s="10">
+        <v>21069000</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O41" s="11">
+        <v>130</v>
+      </c>
+      <c r="P41" s="11">
+        <v>6878</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R41" s="10">
         <v>2</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="S38" t="s">
-        <v>9</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" s="4">
-        <v>3</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="S39" t="s">
-        <v>9</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="4">
-        <v>4</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="S40" t="s">
-        <v>9</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="4">
-        <v>5</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
       <c r="S41" t="s">
         <v>9</v>
       </c>
@@ -1682,23 +2692,35 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>6</v>
-      </c>
+      <c r="A42" s="4"/>
       <c r="B42" s="1"/>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="4">
-        <v>6</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="J42" s="9">
+        <v>35</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M42" s="10">
+        <v>17198000</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="O42" s="11">
+        <v>105</v>
+      </c>
+      <c r="P42" s="11">
+        <v>6758</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="R42" s="10">
+        <v>2</v>
+      </c>
       <c r="S42" t="s">
         <v>9</v>
       </c>
@@ -1707,23 +2729,35 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>7</v>
-      </c>
+      <c r="A43" s="4"/>
       <c r="B43" s="1"/>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="4">
-        <v>7</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="J43" s="9">
+        <v>36</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M43" s="10">
+        <v>24071000</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="O43" s="11">
+        <v>145</v>
+      </c>
+      <c r="P43" s="11">
+        <v>7169</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R43" s="10">
+        <v>2</v>
+      </c>
       <c r="S43" t="s">
         <v>9</v>
       </c>
@@ -1732,23 +2766,35 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>8</v>
-      </c>
+      <c r="A44" s="4"/>
       <c r="B44" s="1"/>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="4">
-        <v>8</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="J44" s="9">
+        <v>37</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M44" s="10">
+        <v>23748000</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="O44" s="11">
+        <v>144</v>
+      </c>
+      <c r="P44" s="11">
+        <v>7084</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="R44" s="10">
+        <v>2</v>
+      </c>
       <c r="S44" t="s">
         <v>9</v>
       </c>
@@ -1757,23 +2803,35 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>9</v>
-      </c>
+      <c r="A45" s="4"/>
       <c r="B45" s="1"/>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="4">
-        <v>9</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="J45" s="9">
+        <v>38</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M45" s="10">
+        <v>20512000</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="O45" s="11">
+        <v>127</v>
+      </c>
+      <c r="P45" s="11">
+        <v>6999</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="R45" s="10">
+        <v>2</v>
+      </c>
       <c r="S45" t="s">
         <v>9</v>
       </c>
@@ -1782,23 +2840,35 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>10</v>
-      </c>
+      <c r="A46" s="4"/>
       <c r="B46" s="1"/>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="4">
-        <v>10</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="J46" s="9">
+        <v>39</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M46" s="10">
+        <v>18172000</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="O46" s="11">
+        <v>111</v>
+      </c>
+      <c r="P46" s="11">
+        <v>7133</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="R46" s="10">
+        <v>2</v>
+      </c>
       <c r="S46" t="s">
         <v>9</v>
       </c>
@@ -1809,17 +2879,33 @@
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="1"/>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="J47" s="9">
+        <v>40</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M47" s="10">
+        <v>23717000</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O47" s="11">
+        <v>142</v>
+      </c>
+      <c r="P47" s="11">
+        <v>7130</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="R47" s="10">
+        <v>2</v>
+      </c>
       <c r="S47" t="s">
         <v>9</v>
       </c>
@@ -1828,61 +2914,72 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="A48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49" s="9">
         <v>1</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
       <c r="F49" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="11"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>2</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="9">
         <v>1</v>
       </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="S49" t="s">
-        <v>9</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="4">
-        <v>2</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10">
+        <v>16900000</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="11">
+        <v>169</v>
+      </c>
+      <c r="P50" s="11">
+        <v>6808</v>
+      </c>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="11"/>
       <c r="S50" t="s">
         <v>9</v>
       </c>
@@ -1894,20 +2991,28 @@
       <c r="A51" s="4">
         <v>3</v>
       </c>
-      <c r="B51" s="1"/>
       <c r="F51" t="s">
         <v>9</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J51" s="4">
-        <v>3</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="J51" s="9">
+        <v>2</v>
+      </c>
+      <c r="M51" s="10">
+        <v>18400000</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" s="11">
+        <v>184</v>
+      </c>
+      <c r="P51" s="11">
+        <v>6901</v>
+      </c>
+      <c r="Q51" s="10"/>
       <c r="S51" t="s">
         <v>9</v>
       </c>
@@ -1919,7 +3024,6 @@
       <c r="A52" s="4">
         <v>4</v>
       </c>
-      <c r="B52" s="1"/>
       <c r="F52" t="s">
         <v>9</v>
       </c>
@@ -1927,12 +3031,21 @@
         <v>5</v>
       </c>
       <c r="J52" s="4">
-        <v>4</v>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="M52" s="11">
+        <v>19700000</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="11">
+        <v>197</v>
+      </c>
+      <c r="P52" s="11">
+        <v>6854</v>
+      </c>
+      <c r="Q52" s="10"/>
       <c r="S52" t="s">
         <v>9</v>
       </c>
@@ -1944,7 +3057,6 @@
       <c r="A53" s="4">
         <v>5</v>
       </c>
-      <c r="B53" s="1"/>
       <c r="F53" t="s">
         <v>9</v>
       </c>
@@ -1952,12 +3064,20 @@
         <v>5</v>
       </c>
       <c r="J53" s="4">
-        <v>5</v>
-      </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="M53" s="11">
+        <v>19800000</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53" s="11">
+        <v>198</v>
+      </c>
+      <c r="P53" s="11">
+        <v>6781</v>
+      </c>
       <c r="S53" t="s">
         <v>9</v>
       </c>
@@ -1972,11 +3092,23 @@
       <c r="F54" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="J54" s="4">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>15100000</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O54" s="11">
+        <v>151</v>
+      </c>
+      <c r="P54">
+        <v>6614</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="S54" t="s">
         <v>9</v>
@@ -1989,29 +3121,1458 @@
       <c r="A55" s="4">
         <v>7</v>
       </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="4">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>18200000</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O55" s="11">
+        <v>182</v>
+      </c>
+      <c r="P55">
+        <v>6870</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S55" t="s">
+        <v>9</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>8</v>
       </c>
+      <c r="J56" s="4">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>18900000</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="11">
+        <v>189</v>
+      </c>
+      <c r="P56">
+        <v>7021</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S56" t="s">
+        <v>9</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>9</v>
+      <c r="A57" s="4"/>
+      <c r="J57" s="4">
+        <v>8</v>
+      </c>
+      <c r="M57">
+        <v>14800000</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O57" s="11">
+        <v>148</v>
+      </c>
+      <c r="P57">
+        <v>6736</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S57" t="s">
+        <v>9</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
+        <v>9</v>
+      </c>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="J59" s="4">
+        <v>9</v>
+      </c>
+      <c r="M59" s="11">
+        <v>17600000</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O59">
+        <v>176</v>
+      </c>
+      <c r="P59">
+        <v>6730</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S59" t="s">
+        <v>9</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="J60" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+      <c r="M60">
+        <v>17800000</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O60" s="11">
+        <v>178</v>
+      </c>
+      <c r="P60">
+        <v>6821</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s">
+        <v>9</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="J61" s="4">
+        <v>11</v>
+      </c>
+      <c r="M61">
+        <v>17100000</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O61" s="11">
+        <v>171</v>
+      </c>
+      <c r="P61">
+        <v>6940</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S61" t="s">
+        <v>9</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="J62" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+      <c r="M62">
+        <v>14300000</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O62" s="11">
+        <v>143</v>
+      </c>
+      <c r="P62">
+        <v>6876</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S62" t="s">
+        <v>9</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="J63" s="4">
+        <v>13</v>
+      </c>
+      <c r="M63">
+        <v>19500000</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O63" s="11">
+        <v>195</v>
+      </c>
+      <c r="P63">
+        <v>7000</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S63" t="s">
+        <v>9</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="J64" s="4">
+        <v>14</v>
+      </c>
+      <c r="M64">
+        <v>18800000</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O64" s="11">
+        <v>188</v>
+      </c>
+      <c r="P64">
+        <v>6958</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S64" t="s">
+        <v>9</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="J65" s="4">
+        <v>15</v>
+      </c>
+      <c r="M65">
+        <v>16700000</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O65" s="11">
+        <v>167</v>
+      </c>
+      <c r="P65">
+        <v>6668</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S65" t="s">
+        <v>9</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="J66" s="4">
+        <v>16</v>
+      </c>
+      <c r="M66">
+        <v>15700000</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O66" s="11">
+        <v>157</v>
+      </c>
+      <c r="P66">
+        <v>6603</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S66" t="s">
+        <v>9</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="11"/>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="J68" s="4">
+        <v>17</v>
+      </c>
+      <c r="M68">
+        <v>19500000</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O68" s="11">
+        <v>195</v>
+      </c>
+      <c r="P68">
+        <v>6766</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S68" t="s">
+        <v>9</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="J69" s="4">
+        <v>18</v>
+      </c>
+      <c r="M69">
+        <v>19900000</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O69" s="11">
+        <v>199</v>
+      </c>
+      <c r="P69">
+        <v>6698</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S69" t="s">
+        <v>9</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J70" s="4">
+        <v>19</v>
+      </c>
+      <c r="M70">
+        <v>19100000</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O70" s="11">
+        <v>191</v>
+      </c>
+      <c r="P70">
+        <v>6912</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S70" t="s">
+        <v>9</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J71" s="4">
+        <v>20</v>
+      </c>
+      <c r="M71">
+        <v>18600000</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O71" s="11">
+        <v>186</v>
+      </c>
+      <c r="P71">
+        <v>6877</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S71" t="s">
+        <v>9</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J72" s="4">
+        <v>21</v>
+      </c>
+      <c r="M72">
+        <v>20000000</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O72" s="11">
+        <v>200</v>
+      </c>
+      <c r="P72">
+        <v>6749</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S72" t="s">
+        <v>9</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J73" s="4">
+        <v>22</v>
+      </c>
+      <c r="M73">
+        <v>19400000</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O73" s="11">
+        <v>194</v>
+      </c>
+      <c r="P73">
+        <v>6728</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S73" t="s">
+        <v>9</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J74" s="4">
+        <v>23</v>
+      </c>
+      <c r="M74">
+        <v>18700000</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O74" s="11">
+        <v>187</v>
+      </c>
+      <c r="P74">
+        <v>6693</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S74" t="s">
+        <v>9</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J75" s="4">
+        <v>24</v>
+      </c>
+      <c r="M75">
+        <v>24298000</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O75" s="11">
+        <v>243</v>
+      </c>
+      <c r="P75">
+        <v>6611</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S75" t="s">
+        <v>9</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J76" s="4"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="11"/>
+      <c r="Q76" s="1"/>
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J77" s="9">
+        <v>25</v>
+      </c>
+      <c r="M77">
+        <v>14700000</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O77" s="11">
+        <v>147</v>
+      </c>
+      <c r="P77">
+        <v>6732</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S77" t="s">
+        <v>9</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J78" s="9">
+        <v>26</v>
+      </c>
+      <c r="L78" s="9"/>
+      <c r="M78">
+        <v>19500000</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O78" s="11">
+        <v>195</v>
+      </c>
+      <c r="P78">
+        <v>6961</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S78" t="s">
+        <v>9</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J79" s="9">
+        <v>27</v>
+      </c>
+      <c r="L79" s="9"/>
+      <c r="M79">
+        <v>15300000</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O79" s="11">
+        <v>153</v>
+      </c>
+      <c r="P79">
+        <v>6794</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S79" t="s">
+        <v>9</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J80" s="9">
+        <v>28</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80">
+        <v>16900000</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O80" s="11">
+        <v>169</v>
+      </c>
+      <c r="P80">
+        <v>6706</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S80" t="s">
+        <v>9</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J81" s="9">
+        <v>29</v>
+      </c>
+      <c r="L81" s="9"/>
+      <c r="M81">
+        <v>18200000</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O81" s="11">
+        <v>182</v>
+      </c>
+      <c r="P81">
+        <v>6782</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S81" t="s">
+        <v>9</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J82" s="9">
+        <v>30</v>
+      </c>
+      <c r="L82" s="9"/>
+      <c r="M82">
+        <v>19700000</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O82" s="11">
+        <v>197</v>
+      </c>
+      <c r="P82">
+        <v>6866</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S82" t="s">
+        <v>9</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J83" s="9">
+        <v>31</v>
+      </c>
+      <c r="L83" s="9"/>
+      <c r="M83">
+        <v>18800000</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O83" s="11">
+        <v>188</v>
+      </c>
+      <c r="P83">
+        <v>6732</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="S83" t="s">
+        <v>9</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84" s="9">
+        <v>32</v>
+      </c>
+      <c r="L84" s="9"/>
+      <c r="M84">
+        <v>15500000</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O84" s="11">
+        <v>155</v>
+      </c>
+      <c r="P84">
+        <v>6917</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S84" t="s">
+        <v>9</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+      <c r="J85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="11"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="J86" s="9">
+        <v>33</v>
+      </c>
+      <c r="L86" s="9"/>
+      <c r="M86">
+        <v>13100000</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O86" s="11">
+        <v>131</v>
+      </c>
+      <c r="P86">
+        <v>6879</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S86" t="s">
+        <v>9</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="J87" s="9">
+        <v>34</v>
+      </c>
+      <c r="L87" s="9"/>
+      <c r="M87">
+        <v>13000000</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O87" s="11">
+        <v>130</v>
+      </c>
+      <c r="P87">
+        <v>6809</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S87" t="s">
+        <v>9</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
+      <c r="J88" s="9">
+        <v>35</v>
+      </c>
+      <c r="L88" s="9"/>
+      <c r="M88">
+        <v>10500000</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O88" s="11">
+        <v>105</v>
+      </c>
+      <c r="P88">
+        <v>6821</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S88" t="s">
+        <v>9</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
+      <c r="J89" s="9">
+        <v>36</v>
+      </c>
+      <c r="L89" s="9"/>
+      <c r="M89">
+        <v>14500000</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O89" s="11">
+        <v>145</v>
+      </c>
+      <c r="P89">
+        <v>7023</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S89" t="s">
+        <v>9</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
+      <c r="J90" s="9">
+        <v>37</v>
+      </c>
+      <c r="L90" s="9"/>
+      <c r="M90">
+        <v>14400000</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O90" s="11">
+        <v>144</v>
+      </c>
+      <c r="P90">
+        <v>6822</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="S90" t="s">
+        <v>9</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="J91" s="9">
+        <v>38</v>
+      </c>
+      <c r="L91" s="9"/>
+      <c r="M91">
+        <v>12700000</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O91" s="11">
+        <v>127</v>
+      </c>
+      <c r="P91">
+        <v>6665</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S91" t="s">
+        <v>9</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A92" s="3"/>
+      <c r="J92" s="9">
+        <v>39</v>
+      </c>
+      <c r="L92" s="9"/>
+      <c r="M92">
+        <v>11100000</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O92" s="11">
+        <v>111</v>
+      </c>
+      <c r="P92">
+        <v>6747</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="S92" t="s">
+        <v>9</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A93" s="3"/>
+      <c r="J93" s="9">
+        <v>40</v>
+      </c>
+      <c r="L93" s="9"/>
+      <c r="M93">
+        <v>14200000</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O93" s="11">
+        <v>142</v>
+      </c>
+      <c r="P93">
+        <v>6903</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="S93" t="s">
+        <v>9</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="J94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="11"/>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
+      <c r="J95" s="9"/>
+      <c r="L95" s="9"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="S96" t="s">
+        <v>9</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="S97" t="s">
+        <v>9</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>3</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" s="4">
+        <v>2</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="S98" t="s">
+        <v>9</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99" s="4">
+        <v>3</v>
+      </c>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="S99" t="s">
+        <v>9</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="4">
+        <v>4</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="S100" t="s">
+        <v>9</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>6</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="4">
+        <v>5</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="S101" t="s">
+        <v>9</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>7</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="4">
+        <v>6</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="S102" t="s">
+        <v>9</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103" s="4">
+        <v>7</v>
+      </c>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="S103" t="s">
+        <v>9</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J104" s="4">
+        <v>8</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="S104" t="s">
+        <v>9</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J105" s="4">
+        <v>9</v>
+      </c>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="S105" t="s">
+        <v>9</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+      <c r="B106" s="1"/>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106" s="4">
+        <v>10</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="S106" t="s">
+        <v>9</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="S108" t="s">
+        <v>9</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J109" s="4">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="S109" t="s">
+        <v>9</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>3</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J110" s="4">
+        <v>2</v>
+      </c>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="S110" t="s">
+        <v>9</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J111" s="4">
+        <v>3</v>
+      </c>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="S111" t="s">
+        <v>9</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>5</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J112" s="4">
+        <v>4</v>
+      </c>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="S112" t="s">
+        <v>9</v>
+      </c>
+      <c r="T112" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J113" s="4">
+        <v>5</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="S113" t="s">
+        <v>9</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>7</v>
+      </c>
+      <c r="J114" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
         <v>13</v>
       </c>
     </row>
